--- a/02_MasterWifoMannheim/99_Backup/Course75.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course75.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3D0DB4B639A2011592EE8F763C7FFBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9644A35-45F7-4F3F-98AC-0FE8BFFF4528}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 602 Trading and Exchanges (no offering in fall 2020!)</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Traditional asset pricing theory and investment analysis treat the process of price formation as a black box. The actual structure of financial markets does not play a role, and frictions and transaction costs are disregarded. These issues, and market liquidity in particular, are of enormous practical importance. This is evidenced by the great attention regulators pay to issues of financial market structure (e.g. the attention market participants pay to trading costs. In recent years, many new markets have been created in an attempt to reduce transaction costs (e.g. the Turquoise in Europe). The branch of financial economics that deals with these issues is called market microstructure. This course provides an introduction into the theoretical and empirical foundations of market microstructure.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>They will know how an exchange operates and what the distinguishing features and theoretical foundations of auction and dealer markets are. They will be able to understand and apply measures of market quality and liquidity. They will further understand how asset characteristics, risk aversion and asymmetric information affect the process of price formation and market liquidity.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory Registration</t>
-  </si>
-  <si>
-    <t>Further information on registration: -</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (closed book, 60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Erik Theissen</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester (no offering in fall 2020!)</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>FIN 500, Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FIN 602 Trading and Exchanges </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Traditional asset pricing theory and investment analysis treat the process of price formation as a black box. The actual structure of financial markets does not play a role, and frictions and transaction costs are disregarded. These issues, and market liquidity in particular, are of enormous practical importance. This is evidenced by the great attention regulators pay to issues of financial market structure (e.g. the attention market participants pay to trading costs. In recent years, many new markets have been created in an attempt to reduce transaction costs (e.g. the Turquoise in Europe). The branch of financial economics that deals with these issues is called market microstructure. This course provides an introduction into the theoretical and empirical foundations of market microstructure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>They will know how an exchange operates and what the distinguishing features and theoretical foundations of auction and dealer markets are. They will be able to understand and apply measures of market quality and liquidity. They will further understand how asset characteristics, risk aversion and asymmetric information affect the process of price formation and market liquidity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FIN 500, Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory Registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further information on registration: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (closed book, 60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Erik Theissen</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
